--- a/Task.xlsx
+++ b/Task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\fordPage\fordPage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EB5D86-8868-495E-B1E7-2C38971D8D4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A409FE4-EACD-4302-89C0-8E1BC2BFB2E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>Task name</t>
   </si>
@@ -103,6 +103,24 @@
   </si>
   <si>
     <t>Hưng</t>
+  </si>
+  <si>
+    <t>ScrollCarousel btn</t>
+  </si>
+  <si>
+    <t>BackToTop btn</t>
+  </si>
+  <si>
+    <t>27/02/2021</t>
+  </si>
+  <si>
+    <t>Something</t>
+  </si>
+  <si>
+    <t>Note: Layout được update mới khi ford.com thay đổi layout. Người cập nhập: Hào</t>
+  </si>
+  <si>
+    <t>24/02/2021</t>
   </si>
 </sst>
 </file>
@@ -447,15 +465,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -503,9 +521,15 @@
       <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
       <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
@@ -524,9 +548,15 @@
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
       <c r="H3" s="1" t="s">
         <v>25</v>
       </c>
@@ -534,41 +564,49 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="E4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
       <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
@@ -576,20 +614,26 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
       <c r="H6" s="1" t="s">
         <v>25</v>
       </c>
@@ -597,20 +641,26 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
       <c r="H7" s="1" t="s">
         <v>25</v>
       </c>
@@ -618,20 +668,112 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Task.xlsx
+++ b/Task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\fordPage\fordPage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A409FE4-EACD-4302-89C0-8E1BC2BFB2E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EB5D86-8868-495E-B1E7-2C38971D8D4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Task name</t>
   </si>
@@ -103,24 +103,6 @@
   </si>
   <si>
     <t>Hưng</t>
-  </si>
-  <si>
-    <t>ScrollCarousel btn</t>
-  </si>
-  <si>
-    <t>BackToTop btn</t>
-  </si>
-  <si>
-    <t>27/02/2021</t>
-  </si>
-  <si>
-    <t>Something</t>
-  </si>
-  <si>
-    <t>Note: Layout được update mới khi ford.com thay đổi layout. Người cập nhập: Hào</t>
-  </si>
-  <si>
-    <t>24/02/2021</t>
   </si>
 </sst>
 </file>
@@ -465,15 +447,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -521,15 +503,9 @@
       <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
@@ -548,15 +524,9 @@
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>25</v>
       </c>
@@ -564,49 +534,41 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
@@ -614,26 +576,20 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
         <v>25</v>
       </c>
@@ -641,26 +597,20 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
         <v>25</v>
       </c>
@@ -668,112 +618,20 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
